--- a/Análise Preditiva e Data Mining/Aula 2/aggr_bike_sharing_mensal.xlsx
+++ b/Análise Preditiva e Data Mining/Aula 2/aggr_bike_sharing_mensal.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\regin\FIAP\BDT\41BDT\grupo_trab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Desktop\fiap-mba-big-data-data-science\Análise Preditiva e Data Mining\Aula 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CCCCC5-6F17-4126-ACAB-71E81E72F12E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A66A46-3497-40C4-9A8C-D8FD8E6E47B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="aggr_bike_sharing_mensal" sheetId="1" r:id="rId1"/>
+    <sheet name="Regressão" sheetId="3" r:id="rId1"/>
+    <sheet name="aggr_bike_sharing_mensal" sheetId="1" r:id="rId2"/>
+    <sheet name="Sazonalidade" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>ano</t>
   </si>
@@ -29,13 +32,165 @@
   </si>
   <si>
     <t>cnt_sum</t>
+  </si>
+  <si>
+    <t>tempo</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95,0%</t>
+  </si>
+  <si>
+    <t>Upper 95,0%</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Predicted cnt_sum</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>Standard Residuals</t>
+  </si>
+  <si>
+    <t>cnt_estimado</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Fev</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Abr</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Ago</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dez</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>mês</t>
+  </si>
+  <si>
+    <t>projeção</t>
+  </si>
+  <si>
+    <t>sazonalidade</t>
+  </si>
+  <si>
+    <t>projeção com 
+sazonalidade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,16 +198,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -60,18 +252,257 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -84,8 +515,2163 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>tempo  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>aggr_bike_sharing_mensal!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Regressão!$C$25:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-36297.163333333345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-31724.102028985508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-21347.040724637685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4025.0205797101371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39523.08188405796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41761.143188405782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34137.204492753619</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24034.265797101441</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9308.3271014492639</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-51.611594202899141</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-26848.550289855077</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-47145.488985507254</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-43177.427681159432</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-42237.36637681158</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14047.694927536242</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17943.756231884065</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34131.817536231887</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35643.87884057971</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30967.940144927532</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36411.001449275354</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35028.062753623177</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9843.1240579709993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-41786.814637681178</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-76190.753333333356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2905-4090-9677-7222C42675A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1853831808"/>
+        <c:axId val="580148224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1853831808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="580148224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="580148224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1853831808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>tempo Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>cnt_sum</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>aggr_bike_sharing_mensal!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>aggr_bike_sharing_mensal!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>38189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94870</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135821</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>143512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136691</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127418</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123511</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102167</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87323</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96744</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103137</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>164875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>174224</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>195865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>202830</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>203607</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>214503</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>218573</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>198841</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>152664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FFBB-4626-AE2A-444C274BA133}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted cnt_sum</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>aggr_bike_sharing_mensal!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Regressão!$B$25:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>74486.163333333345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79939.102028985508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85392.040724637685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90844.979420289863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96297.91811594204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101750.85681159422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107203.79550724638</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112656.73420289856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118109.67289855074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123562.6115942029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129015.55028985508</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134468.48898550725</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>139921.42768115943</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>145374.36637681158</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150827.30507246376</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>156280.24376811594</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>161733.18246376811</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>167186.12115942029</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>172639.05985507247</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>178091.99855072465</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>183544.93724637682</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>188997.875942029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>194450.81463768118</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>199903.75333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FFBB-4626-AE2A-444C274BA133}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1853831808"/>
+        <c:axId val="580141568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1853831808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="580141568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="580141568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>cnt_sum</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1853831808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Projeção com sazonalidade</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.882191196688651E-2"/>
+          <c:y val="0.1817841509713323"/>
+          <c:w val="0.90063653807979882"/>
+          <c:h val="0.76729380436485373"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>aggr_bike_sharing_mensal!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cnt_sum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>aggr_bike_sharing_mensal!$D$2:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>38189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94870</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135821</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>143512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136691</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127418</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123511</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102167</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87323</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96744</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103137</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>164875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>174224</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>195865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>202830</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>203607</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>214503</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>218573</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>198841</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>152664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123713</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96011.641141630913</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>112707.86631889244</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>171232.89913993224</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>214605.51622406358</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>279176.37128799374</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>299256.04154910869</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>304317.81887279468</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>313590.20529760077</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>312434.77727858286</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>299782.31757378654</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>244302.36129579507</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>207929.64971832422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2747-4FBB-B1E3-86EB5F4C3019}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>aggr_bike_sharing_mensal!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cnt_estimado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>aggr_bike_sharing_mensal!$E$2:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>74486.163333333345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79939.102028985508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85392.040724637685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90844.979420289863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96297.91811594204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101750.85681159422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107203.79550724638</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112656.73420289856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118109.67289855074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123562.6115942029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129015.55028985508</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134468.48898550725</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>139921.42768115943</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>145374.36637681158</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150827.30507246376</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>156280.24376811594</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>161733.18246376811</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>167186.12115942029</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>172639.05985507247</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>178091.99855072465</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>183544.93724637682</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>188997.875942029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>194450.81463768118</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>199903.75333333336</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>205356.69202898553</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>210809.63072463771</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>216262.56942028989</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>221715.50811594201</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>227168.44681159419</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>232621.38550724636</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>238074.32420289854</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>243527.26289855072</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>248980.2015942029</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>254433.14028985507</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>259886.07898550725</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>265339.01768115943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2747-4FBB-B1E3-86EB5F4C3019}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1742539616"/>
+        <c:axId val="472903968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1742539616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472903968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="472903968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1742539616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60465FD-BB72-4D62-8AF7-6D348D5088A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6CA906-670C-4B1A-9A12-81C0007DA7F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930A860F-4C94-4F8D-8845-9F7A13846B1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6BCF304-549D-493A-BEF2-1CF86E8D501F}" name="Table1" displayName="Table1" ref="A1:N3" totalsRowShown="0" headerRowDxfId="21">
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{8C5C1067-BDBB-48E2-96AE-C3B813D8D2DF}" name="Ano" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{10FBDFFD-F9F3-42B9-94C1-0A8CDA2298B9}" name="Jan" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{71E6F0A8-7EFC-4E33-A921-34A1E3076BB4}" name="Fev" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{AF16095B-8DCB-411E-A99D-D90220A68A82}" name="Mar" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{4631D113-CE99-494D-A584-2D7F64FBF9D5}" name="Abr" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{556BC6A5-923A-4423-BF9F-5DD0057014B7}" name="Mai" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{5E527721-7C18-406F-8454-FF99E2B87282}" name="Jun" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{904A1ED2-3044-4743-8226-257D8093A608}" name="Jul" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{BF3BAAB4-A7CF-45A7-97B1-0CB71C9CB176}" name="Ago" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{1AE4DE60-E267-4B47-8EDE-53D54AC6B6AF}" name="Set" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{7DDB5D8A-D4D7-4211-93EC-40E432D2E715}" name="Out" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{F6533BE5-2D94-448C-8D37-3E16236956D1}" name="Nov" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{B63471F9-E188-4479-9F54-136C22CEBBA3}" name="Dez" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{DF17581E-4C3B-4832-9751-7607DF9F7B09}" name="Média" dataDxfId="5">
+      <calculatedColumnFormula>AVERAGE(B2:M2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81DC0804-1965-4179-89B4-8076EFAD765B}" name="Table2" displayName="Table2" ref="A5:M7" totalsRowShown="0" headerRowDxfId="7">
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{D19BD320-349A-4E35-9888-47BE57E69D98}" name="Ano" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{98A7C96C-E42E-4A28-B7F0-6F3A40C67A7F}" name="Jan" dataDxfId="19">
+      <calculatedColumnFormula>B2/$N$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{7887E609-17EA-4774-9A74-194FA45602E8}" name="Fev" dataDxfId="18">
+      <calculatedColumnFormula>C2/$N$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{41E0B79B-E278-47B5-9892-0E4637C9F935}" name="Mar" dataDxfId="17">
+      <calculatedColumnFormula>D2/$N$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{8E620D82-0E6F-41BD-BF16-E1F50409E2EB}" name="Abr" dataDxfId="16">
+      <calculatedColumnFormula>E2/$N$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{ADE1D934-45A1-4B22-919C-CBC233FE2C08}" name="Mai" dataDxfId="15">
+      <calculatedColumnFormula>F2/$N$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{452690A2-EDB3-44D5-BB32-04AF59FB6846}" name="Jun" dataDxfId="14">
+      <calculatedColumnFormula>G2/$N$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{FE5CC47B-E226-4A96-91F2-32A516E9BE3F}" name="Jul" dataDxfId="13">
+      <calculatedColumnFormula>H2/$N$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{23A94A19-25E5-4711-9394-44D7A247DA3A}" name="Ago" dataDxfId="12">
+      <calculatedColumnFormula>I2/$N$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{AB6F8DC4-6972-4EEA-9BC1-8C26A3D27F3D}" name="Set" dataDxfId="11">
+      <calculatedColumnFormula>J2/$N$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{10ED6D0B-61EA-4F78-8380-525C1FE9EA90}" name="Out" dataDxfId="10">
+      <calculatedColumnFormula>K2/$N$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{D4B1C13C-B667-4D33-ADB0-30A9A366184E}" name="Nov" dataDxfId="9">
+      <calculatedColumnFormula>L2/$N$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{9EC20DC0-8167-4322-BA73-D6839E52EEED}" name="Dez" dataDxfId="8">
+      <calculatedColumnFormula>M2/$N$3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6EA41116-21E0-4F96-90F4-4A429CEBF301}" name="Table4" displayName="Table4" ref="D14:G26" totalsRowShown="0" headerRowDxfId="2">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CB0544A4-249E-4BDC-A43F-EB12AC7219C3}" name="mês" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{47D658F4-6DFF-4D53-886B-45BBC47293EA}" name="projeção com _x000a_sazonalidade" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{05A6EEC5-5B62-4DD6-AC11-FF3EE2C1F6FA}" name="projeção" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F5B8D061-024A-44C0-984D-CD17BCD21A6A}" name="sazonalidade" dataDxfId="0" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -404,20 +2990,617 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB6AAF9-9EA6-4B19-94CD-6EE15890B7D4}">
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A10" sqref="A10:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.73771207917445702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.54421911175990034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.52350179865807767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>36079.404067869007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>34194721481.321953</v>
+      </c>
+      <c r="D12" s="2">
+        <v>34194721481.321953</v>
+      </c>
+      <c r="E12" s="2">
+        <v>26.268807595132586</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3.8915661598308205E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2">
+        <v>28637914753.636383</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1301723397.8925629</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <v>62832636234.958336</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>69033.224637681167</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15202.07443137804</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4.5410397738345658</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.6091200472661239E-4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>37506.051898173842</v>
+      </c>
+      <c r="G17" s="2">
+        <v>100560.39737718849</v>
+      </c>
+      <c r="H17" s="2">
+        <v>37506.051898173842</v>
+      </c>
+      <c r="I17" s="2">
+        <v>100560.39737718849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5452.9386956521739</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1063.9235825339119</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5.1253104876809745</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3.8915661598308279E-5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3246.4962315271277</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7659.3811597772201</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3246.4962315271277</v>
+      </c>
+      <c r="I18" s="3">
+        <v>7659.3811597772201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>74486.163333333345</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-36297.163333333345</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-1.0286459197498994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2">
+        <v>79939.102028985508</v>
+      </c>
+      <c r="C26" s="2">
+        <v>-31724.102028985508</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-0.89904733904859158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2">
+        <v>85392.040724637685</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-21347.040724637685</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-0.60496590707318321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2">
+        <v>90844.979420289863</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4025.0205797101371</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.11406734345066467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2">
+        <v>96297.91811594204</v>
+      </c>
+      <c r="C29" s="2">
+        <v>39523.08188405796</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.1200670571036555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2">
+        <v>101750.85681159422</v>
+      </c>
+      <c r="C30" s="2">
+        <v>41761.143188405782</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.18349274708735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2">
+        <v>107203.79550724638</v>
+      </c>
+      <c r="C31" s="2">
+        <v>34137.204492753619</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.96743361983031739</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>112656.73420289856</v>
+      </c>
+      <c r="C32" s="2">
+        <v>24034.265797101441</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.6811207040983539</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2">
+        <v>118109.67289855074</v>
+      </c>
+      <c r="C33" s="2">
+        <v>9308.3271014492639</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.26379396661584459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2">
+        <v>123562.6115942029</v>
+      </c>
+      <c r="C34" s="2">
+        <v>-51.611594202899141</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-1.4626502710707626E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>11</v>
+      </c>
+      <c r="B35" s="2">
+        <v>129015.55028985508</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-26848.550289855077</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-0.76087631017426782</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2">
+        <v>134468.48898550725</v>
+      </c>
+      <c r="C36" s="2">
+        <v>-47145.488985507254</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-1.3360827796429964</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>13</v>
+      </c>
+      <c r="B37" s="2">
+        <v>139921.42768115943</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-43177.427681159432</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-1.2236296374359741</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>14</v>
+      </c>
+      <c r="B38" s="2">
+        <v>145374.36637681158</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-42237.36637681158</v>
+      </c>
+      <c r="D38" s="2">
+        <v>-1.1969887064036542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2">
+        <v>150827.30507246376</v>
+      </c>
+      <c r="C39" s="2">
+        <v>14047.694927536242</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.39810560225876723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2">
+        <v>156280.24376811594</v>
+      </c>
+      <c r="C40" s="2">
+        <v>17943.756231884065</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.50851829558713091</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>17</v>
+      </c>
+      <c r="B41" s="2">
+        <v>161733.18246376811</v>
+      </c>
+      <c r="C41" s="2">
+        <v>34131.817536231887</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.96728095581095419</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>18</v>
+      </c>
+      <c r="B42" s="2">
+        <v>167186.12115942029</v>
+      </c>
+      <c r="C42" s="2">
+        <v>35643.87884057971</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.0101321196015065</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>19</v>
+      </c>
+      <c r="B43" s="2">
+        <v>172639.05985507247</v>
+      </c>
+      <c r="C43" s="2">
+        <v>30967.940144927532</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.87761803809844474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>20</v>
+      </c>
+      <c r="B44" s="2">
+        <v>178091.99855072465</v>
+      </c>
+      <c r="C44" s="2">
+        <v>36411.001449275354</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.0318720427502119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>21</v>
+      </c>
+      <c r="B45" s="2">
+        <v>183544.93724637682</v>
+      </c>
+      <c r="C45" s="2">
+        <v>35028.062753623177</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.99268015787802788</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>22</v>
+      </c>
+      <c r="B46" s="2">
+        <v>188997.875942029</v>
+      </c>
+      <c r="C46" s="2">
+        <v>9843.1240579709993</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.27894988120257896</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>23</v>
+      </c>
+      <c r="B47" s="2">
+        <v>194450.81463768118</v>
+      </c>
+      <c r="C47" s="2">
+        <v>-41786.814637681178</v>
+      </c>
+      <c r="D47" s="2">
+        <v>-1.1842202648635656</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>24</v>
+      </c>
+      <c r="B48" s="3">
+        <v>199903.75333333336</v>
+      </c>
+      <c r="C48" s="3">
+        <v>-76190.753333333356</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-2.1592130167106092</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,10 +3608,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2011</v>
       </c>
@@ -436,10 +3625,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>38189</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C2)</f>
+        <v>74486.163333333345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2011</v>
       </c>
@@ -447,10 +3643,17 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
         <v>48215</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C3)</f>
+        <v>79939.102028985508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2011</v>
       </c>
@@ -458,10 +3661,17 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
         <v>64045</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C4)</f>
+        <v>85392.040724637685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2011</v>
       </c>
@@ -469,10 +3679,17 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
         <v>94870</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C5)</f>
+        <v>90844.979420289863</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2011</v>
       </c>
@@ -480,10 +3697,17 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
         <v>135821</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C6)</f>
+        <v>96297.91811594204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2011</v>
       </c>
@@ -491,10 +3715,17 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
         <v>143512</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C7)</f>
+        <v>101750.85681159422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
@@ -502,10 +3733,17 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
         <v>141341</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C8)</f>
+        <v>107203.79550724638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2011</v>
       </c>
@@ -513,10 +3751,17 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
         <v>136691</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C9)</f>
+        <v>112656.73420289856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -524,10 +3769,17 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
         <v>127418</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C10)</f>
+        <v>118109.67289855074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2011</v>
       </c>
@@ -535,10 +3787,17 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
         <v>123511</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C11)</f>
+        <v>123562.6115942029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2011</v>
       </c>
@@ -546,10 +3805,17 @@
         <v>11</v>
       </c>
       <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
         <v>102167</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C12)</f>
+        <v>129015.55028985508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -557,10 +3823,17 @@
         <v>12</v>
       </c>
       <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
         <v>87323</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C13)</f>
+        <v>134468.48898550725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -568,10 +3841,17 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
         <v>96744</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C14)</f>
+        <v>139921.42768115943</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2012</v>
       </c>
@@ -579,10 +3859,17 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
         <v>103137</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C15)</f>
+        <v>145374.36637681158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -590,10 +3877,17 @@
         <v>3</v>
       </c>
       <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
         <v>164875</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C16)</f>
+        <v>150827.30507246376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2012</v>
       </c>
@@ -601,10 +3895,17 @@
         <v>4</v>
       </c>
       <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1">
         <v>174224</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C17)</f>
+        <v>156280.24376811594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2012</v>
       </c>
@@ -612,10 +3913,17 @@
         <v>5</v>
       </c>
       <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1">
         <v>195865</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C18)</f>
+        <v>161733.18246376811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2012</v>
       </c>
@@ -623,10 +3931,17 @@
         <v>6</v>
       </c>
       <c r="C19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
         <v>202830</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C19)</f>
+        <v>167186.12115942029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2012</v>
       </c>
@@ -634,10 +3949,17 @@
         <v>7</v>
       </c>
       <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1">
         <v>203607</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C20)</f>
+        <v>172639.05985507247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2012</v>
       </c>
@@ -645,10 +3967,17 @@
         <v>8</v>
       </c>
       <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1">
         <v>214503</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C21)</f>
+        <v>178091.99855072465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2012</v>
       </c>
@@ -656,10 +3985,17 @@
         <v>9</v>
       </c>
       <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1">
         <v>218573</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C22)</f>
+        <v>183544.93724637682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2012</v>
       </c>
@@ -667,10 +4003,17 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
         <v>198841</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C23)</f>
+        <v>188997.875942029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2012</v>
       </c>
@@ -678,10 +4021,17 @@
         <v>11</v>
       </c>
       <c r="C24" s="1">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1">
         <v>152664</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C24)</f>
+        <v>194450.81463768118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2012</v>
       </c>
@@ -689,11 +4039,812 @@
         <v>12</v>
       </c>
       <c r="C25" s="1">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1">
         <v>123713</v>
       </c>
+      <c r="E25" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C25)</f>
+        <v>199903.75333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1">
+        <f>E26*F26</f>
+        <v>96011.641141630913</v>
+      </c>
+      <c r="E26" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C26)</f>
+        <v>205356.69202898553</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0.4675359745670189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" ref="D27:D37" si="0">E27*F27</f>
+        <v>112707.86631889244</v>
+      </c>
+      <c r="E27" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C27)</f>
+        <v>210809.63072463771</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0.5346428715399294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>171232.89913993224</v>
+      </c>
+      <c r="E28" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C28)</f>
+        <v>216262.56942028989</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0.79178241338266031</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>214605.51622406358</v>
+      </c>
+      <c r="E29" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C29)</f>
+        <v>221715.50811594201</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0.9679319144055526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>279176.37128799374</v>
+      </c>
+      <c r="E30" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C30)</f>
+        <v>227168.44681159419</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1.2289399131188901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>299256.04154910869</v>
+      </c>
+      <c r="E31" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C31)</f>
+        <v>232621.38550724636</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1.2864511183980829</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>304317.81887279468</v>
+      </c>
+      <c r="E32" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C32)</f>
+        <v>238074.32420289854</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1.2782471183807298</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>313590.20529760077</v>
+      </c>
+      <c r="E33" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C33)</f>
+        <v>243527.26289855072</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1.2877006112791449</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>312434.77727858286</v>
+      </c>
+      <c r="E34" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C34)</f>
+        <v>248980.2015942029</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1.2548579175295254</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>299782.31757378654</v>
+      </c>
+      <c r="E35" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C35)</f>
+        <v>254433.14028985507</v>
+      </c>
+      <c r="F35" s="13">
+        <v>1.1782361261283369</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>244302.36129579507</v>
+      </c>
+      <c r="E36" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C36)</f>
+        <v>259886.07898550725</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0.94003635073281</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>207929.64971832422</v>
+      </c>
+      <c r="E37" s="1">
+        <f>Regressão!$B$17 + (Regressão!$B$18 *aggr_bike_sharing_mensal!C37)</f>
+        <v>265339.01768115943</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0.78363767053731881</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="8"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5277EFE-5783-4474-9547-8CAAA099F1E1}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="1">
+        <v>38189</v>
+      </c>
+      <c r="C2" s="1">
+        <v>48215</v>
+      </c>
+      <c r="D2" s="1">
+        <v>64045</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94870</v>
+      </c>
+      <c r="F2" s="1">
+        <v>135821</v>
+      </c>
+      <c r="G2" s="1">
+        <v>143512</v>
+      </c>
+      <c r="H2" s="1">
+        <v>141341</v>
+      </c>
+      <c r="I2" s="1">
+        <v>136691</v>
+      </c>
+      <c r="J2" s="1">
+        <v>127418</v>
+      </c>
+      <c r="K2" s="1">
+        <v>123511</v>
+      </c>
+      <c r="L2" s="1">
+        <v>102167</v>
+      </c>
+      <c r="M2" s="1">
+        <v>87323</v>
+      </c>
+      <c r="N2" s="12">
+        <f>AVERAGE(B2:M2)</f>
+        <v>103591.91666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="1">
+        <v>96744</v>
+      </c>
+      <c r="C3" s="1">
+        <v>103137</v>
+      </c>
+      <c r="D3" s="1">
+        <v>164875</v>
+      </c>
+      <c r="E3" s="1">
+        <v>174224</v>
+      </c>
+      <c r="F3" s="1">
+        <v>195865</v>
+      </c>
+      <c r="G3" s="1">
+        <v>202830</v>
+      </c>
+      <c r="H3" s="1">
+        <v>203607</v>
+      </c>
+      <c r="I3" s="1">
+        <v>214503</v>
+      </c>
+      <c r="J3" s="1">
+        <v>218573</v>
+      </c>
+      <c r="K3" s="1">
+        <v>198841</v>
+      </c>
+      <c r="L3" s="1">
+        <v>152664</v>
+      </c>
+      <c r="M3" s="1">
+        <v>123713</v>
+      </c>
+      <c r="N3" s="12">
+        <f>AVERAGE(B3:M3)</f>
+        <v>170798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="6">
+        <f>B2/$N$2</f>
+        <v>0.36864845471372842</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" ref="C6:M6" si="0">C2/$N$2</f>
+        <v>0.46543206797827691</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61824321878396238</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.91580504592137579</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3111158126076439</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3853590571336405</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3644018235013511</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3195141512811086</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2299994449373866</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1922841470095398</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.98624490488720562</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.8429518712447801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="6">
+        <f>B3/$N$3</f>
+        <v>0.56642349442030937</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" ref="C7:M7" si="1">C3/$N$3</f>
+        <v>0.60385367510158194</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.96532160798135813</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0200587828897294</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1467640136301362</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1875431796625253</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1920924132601085</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2558870712771812</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2797163901216642</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1641881052471341</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.89382779657841427</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.72432346982985751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
+        <f>AVERAGE(B6:B7)</f>
+        <v>0.4675359745670189</v>
+      </c>
+      <c r="C8" s="11">
+        <f>AVERAGE(C6:C7)</f>
+        <v>0.5346428715399294</v>
+      </c>
+      <c r="D8" s="11">
+        <f>AVERAGE(D6:D7)</f>
+        <v>0.79178241338266031</v>
+      </c>
+      <c r="E8" s="11">
+        <f>AVERAGE(E6:E7)</f>
+        <v>0.9679319144055526</v>
+      </c>
+      <c r="F8" s="11">
+        <f>AVERAGE(F6:F7)</f>
+        <v>1.2289399131188901</v>
+      </c>
+      <c r="G8" s="11">
+        <f>AVERAGE(G6:G7)</f>
+        <v>1.2864511183980829</v>
+      </c>
+      <c r="H8" s="11">
+        <f>AVERAGE(H6:H7)</f>
+        <v>1.2782471183807298</v>
+      </c>
+      <c r="I8" s="11">
+        <f>AVERAGE(I6:I7)</f>
+        <v>1.2877006112791449</v>
+      </c>
+      <c r="J8" s="11">
+        <f>AVERAGE(J6:J7)</f>
+        <v>1.2548579175295254</v>
+      </c>
+      <c r="K8" s="11">
+        <f>AVERAGE(K6:K7)</f>
+        <v>1.1782361261283369</v>
+      </c>
+      <c r="L8" s="11">
+        <f>AVERAGE(L6:L7)</f>
+        <v>0.94003635073281</v>
+      </c>
+      <c r="M8" s="11">
+        <f>AVERAGE(M6:M7)</f>
+        <v>0.78363767053731881</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FEC9A5-3C96-40AD-9543-EC144AE2071E}">
+  <dimension ref="D14:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1">
+        <v>96011.641141630913</v>
+      </c>
+      <c r="F15" s="1">
+        <v>205356.69202898553</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0.4675359745670189</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1">
+        <v>112707.86631889244</v>
+      </c>
+      <c r="F16" s="1">
+        <v>210809.63072463771</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.5346428715399294</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1">
+        <v>171232.89913993224</v>
+      </c>
+      <c r="F17" s="1">
+        <v>216262.56942028989</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0.79178241338266031</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1">
+        <v>214605.51622406358</v>
+      </c>
+      <c r="F18" s="1">
+        <v>221715.50811594201</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.9679319144055526</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1">
+        <v>279176.37128799374</v>
+      </c>
+      <c r="F19" s="1">
+        <v>227168.44681159419</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1.2289399131188901</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1">
+        <v>299256.04154910869</v>
+      </c>
+      <c r="F20" s="1">
+        <v>232621.38550724636</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1.2864511183980829</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1">
+        <v>304317.81887279468</v>
+      </c>
+      <c r="F21" s="1">
+        <v>238074.32420289854</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1.2782471183807298</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1">
+        <v>313590.20529760077</v>
+      </c>
+      <c r="F22" s="1">
+        <v>243527.26289855072</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1.2877006112791449</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <v>33</v>
+      </c>
+      <c r="E23" s="1">
+        <v>312434.77727858286</v>
+      </c>
+      <c r="F23" s="1">
+        <v>248980.2015942029</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1.2548579175295254</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1">
+        <v>299782.31757378654</v>
+      </c>
+      <c r="F24" s="1">
+        <v>254433.14028985507</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1.1782361261283369</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1">
+        <v>244302.36129579507</v>
+      </c>
+      <c r="F25" s="1">
+        <v>259886.07898550725</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.94003635073281</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1">
+        <v>207929.64971832422</v>
+      </c>
+      <c r="F26" s="1">
+        <v>265339.01768115943</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.78363767053731881</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>